--- a/17 - CONTROLE BANCARIO (1).xlsx
+++ b/17 - CONTROLE BANCARIO (1).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silvia\Documents\Cursos Office 2013\Excel 2013 Avançado\PLANILHAS\PLANILHAS ATIVIDADES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\381121742018.1\trab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8385"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="CONTAS" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="49">
   <si>
     <t>Data</t>
   </si>
@@ -162,6 +162,15 @@
   </si>
   <si>
     <t>Entrada</t>
+  </si>
+  <si>
+    <t>fsdfsd</t>
+  </si>
+  <si>
+    <t>sdfdfs</t>
+  </si>
+  <si>
+    <t>sdfsd</t>
   </si>
 </sst>
 </file>
@@ -723,7 +732,7 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,7 +741,7 @@
     <col min="2" max="2" width="8.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" style="8" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="8"/>
   </cols>
@@ -776,7 +785,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>44</v>
@@ -859,7 +868,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E8" s="3">
         <v>320</v>
@@ -936,7 +945,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>45</v>
@@ -982,7 +991,7 @@
         <v>44</v>
       </c>
       <c r="E14" s="3">
-        <v>134</v>
+        <v>25415343</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>11</v>
